--- a/tmp/dd_export/DD_13032024.xlsx
+++ b/tmp/dd_export/DD_13032024.xlsx
@@ -4,14 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RUN_TIME_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RUN_TIME_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RUN_TIME_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RUN_TIME_4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +507,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>recoreded</t>
+          <t>remark</t>
         </is>
       </c>
     </row>
@@ -552,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45364.00589200231</v>
+        <v>45364.73292706018</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -560,57 +559,6 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>No_changed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>45364.00690490741</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -706,7 +654,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>recoreded</t>
+          <t>remark</t>
         </is>
       </c>
     </row>
@@ -750,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45364.00589200231</v>
+        <v>45364.73292706018</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -762,53 +710,53 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>45364.00690490741</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" s="3" t="n">
+        <v>45364.7332065625</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>No_changed</t>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -904,7 +852,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>recoreded</t>
+          <t>remark</t>
         </is>
       </c>
     </row>
@@ -948,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45364.00589200231</v>
+        <v>45364.73292706018</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -999,7 +947,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>45364.00690490741</v>
+        <v>45364.7332065625</v>
       </c>
       <c r="N3" t="n">
         <v>28</v>
@@ -1021,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,7 +1050,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>recoreded</t>
+          <t>remark</t>
         </is>
       </c>
     </row>
@@ -1146,261 +1094,12 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45364.00589200231</v>
+        <v>45364.73292706018</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>No_changed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>45364.00589200231</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ApplicationCode</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AccountOwner</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>AccountName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>AccountType</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>EntitlementName</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>SecondEntitlementName</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ThirdEntitlementName</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>AccountStatus</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>IsPrivileged</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>AccountDescription</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>CreateDate</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>LastLogin</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>LastUpdatedDate</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>AdditionalAttribute</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>recoreded</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>45364.00589200231</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-13</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45364.00589200231</v>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>Inserted</t>
         </is>
